--- a/biology/Zoologie/Dalbulus/Dalbulus.xlsx
+++ b/biology/Zoologie/Dalbulus/Dalbulus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dalbulus est un genre d'insectes hémiptères de la famille des Cicadellidae. Les hémiptères sont caractérisés par leurs deux paires d'ailes dont l'une, en partie cornée, est transformée en hémiélytre.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Dalbulus a été créé en 1950 par l'entomologiste américain Dwight Moore DeLong (d) (1892-1984) avec pour espèce type Dalbulus elimatus[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Dalbulus a été créé en 1950 par l'entomologiste américain Dwight Moore DeLong (d) (1892-1984) avec pour espèce type Dalbulus elimatus
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (19 juillet 2021)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (19 juillet 2021) :
 Dalbulus charlesi Triplehorn &amp; Nault, 1985
 Dalbulus chiapensis Triplehorn &amp; Nault, 1985
 Dalbulus cimmyti Nault &amp; Styer, 1994
@@ -586,7 +602,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Dwight M. DeLong, « The genera Baldulus and Dalbulus in North America including Mexico (Homoptera: Cicadellidae) », Bulletin of the Brooklyn Entomological Society, Brooklyn, Brooklyn Entomological Society (d), vol. 45,‎ octobre 1950, p. 105-116 (ISSN 1051-8932 et 1051-8940, lire en ligne)</t>
         </is>
